--- a/Calculos/MoS_Seno final.xlsx
+++ b/Calculos/MoS_Seno final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD303953-5F46-45B1-B23F-5B5E4B5465D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B49C0B7-95ED-4172-9604-5BA3A0CF9154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoS Estatico X" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="MoS Estatico Z" sheetId="3" r:id="rId3"/>
     <sheet name="Seno x" sheetId="4" r:id="rId4"/>
     <sheet name="Seno z" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="54">
   <si>
     <t>Shell 2D Elements</t>
   </si>
@@ -198,6 +199,9 @@
   <si>
     <t>ANALISIS SENO Z</t>
   </si>
+  <si>
+    <t>Beam 1D Elements</t>
+  </si>
 </sst>
 </file>
 
@@ -270,21 +274,81 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1165,73 +1229,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="Q1" s="9" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="Q1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="AD1" s="9" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="AD1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -2265,10 +2329,10 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="9"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P21" t="s">
@@ -2577,10 +2641,10 @@
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="13"/>
     </row>
     <row r="37" spans="16:23" x14ac:dyDescent="0.25">
       <c r="P37" t="s">
@@ -2962,10 +3026,10 @@
       <c r="W50" s="4"/>
     </row>
     <row r="52" spans="16:29" x14ac:dyDescent="0.25">
-      <c r="Q52" s="9" t="s">
+      <c r="Q52" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="9"/>
+      <c r="R52" s="13"/>
     </row>
     <row r="53" spans="16:29" x14ac:dyDescent="0.25">
       <c r="P53" t="s">
@@ -3598,47 +3662,47 @@
     <mergeCell ref="Q36:R36"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="58" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="56" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3663,73 +3727,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="Q1" s="9" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="Q1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="AD1" s="9" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="AD1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -4763,10 +4827,10 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="9"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P21" t="s">
@@ -5075,10 +5139,10 @@
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="13"/>
     </row>
     <row r="37" spans="16:23" x14ac:dyDescent="0.25">
       <c r="P37" t="s">
@@ -5460,10 +5524,10 @@
       <c r="W50" s="4"/>
     </row>
     <row r="52" spans="16:29" x14ac:dyDescent="0.25">
-      <c r="Q52" s="9" t="s">
+      <c r="Q52" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="9"/>
+      <c r="R52" s="13"/>
     </row>
     <row r="53" spans="16:29" x14ac:dyDescent="0.25">
       <c r="P53" t="s">
@@ -6096,47 +6160,47 @@
     <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="47" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="45" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6160,73 +6224,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="Q1" s="9" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="Q1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="AD1" s="9" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="AD1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -7260,10 +7324,10 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="9"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P21" t="s">
@@ -7572,10 +7636,10 @@
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="13"/>
     </row>
     <row r="37" spans="16:23" x14ac:dyDescent="0.25">
       <c r="P37" t="s">
@@ -7957,10 +8021,10 @@
       <c r="W50" s="4"/>
     </row>
     <row r="52" spans="16:29" x14ac:dyDescent="0.25">
-      <c r="Q52" s="9" t="s">
+      <c r="Q52" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="9"/>
+      <c r="R52" s="13"/>
     </row>
     <row r="53" spans="16:29" x14ac:dyDescent="0.25">
       <c r="P53" t="s">
@@ -8593,47 +8657,47 @@
     <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8645,80 +8709,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF71C30C-B3DA-491B-B9AB-D717A9293A94}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="Q1" s="9" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="Q1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="AD1" s="9" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="AD1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -8878,28 +8942,28 @@
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
         <v>0.82881381957241418</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AC6" s="11">
         <v>0</v>
       </c>
-      <c r="AD6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="14">
+      <c r="AD6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="12">
         <v>792.65679999999998</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AF6" s="12">
         <v>780.7962</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AG6" s="12">
         <v>1320.194</v>
       </c>
-      <c r="AH6" s="14">
+      <c r="AH6" s="12">
         <v>6.4331809999999996E-3</v>
       </c>
-      <c r="AI6" s="14">
+      <c r="AI6" s="12">
         <v>64.084919999999997</v>
       </c>
-      <c r="AJ6" s="14">
+      <c r="AJ6" s="12">
         <v>60.218069999999997</v>
       </c>
     </row>
@@ -8945,28 +9009,28 @@
         <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
         <v>0.80233511247361977</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7" s="11">
         <v>0</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7" s="11">
         <v>2</v>
       </c>
-      <c r="AE7" s="14">
+      <c r="AE7" s="12">
         <v>6871.9610000000002</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AF7" s="12">
         <v>1028.9829999999999</v>
       </c>
-      <c r="AG7" s="14">
+      <c r="AG7" s="12">
         <v>843.62490000000003</v>
       </c>
-      <c r="AH7" s="14">
+      <c r="AH7" s="12">
         <v>5.749115E-3</v>
       </c>
-      <c r="AI7" s="14">
+      <c r="AI7" s="12">
         <v>211.2208</v>
       </c>
-      <c r="AJ7" s="14">
+      <c r="AJ7" s="12">
         <v>5.8300140000000003</v>
       </c>
     </row>
@@ -9007,28 +9071,28 @@
         <f t="shared" si="2"/>
         <v>0.8023356576195837</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC8" s="11">
         <v>0</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AD8" s="11">
         <v>3</v>
       </c>
-      <c r="AE8" s="14">
+      <c r="AE8" s="12">
         <v>6871.8339999999998</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AF8" s="12">
         <v>1028.991</v>
       </c>
-      <c r="AG8" s="14">
+      <c r="AG8" s="12">
         <v>843.60379999999998</v>
       </c>
-      <c r="AH8" s="14">
+      <c r="AH8" s="12">
         <v>5.7551900000000003E-3</v>
       </c>
-      <c r="AI8" s="14">
+      <c r="AI8" s="12">
         <v>211.21870000000001</v>
       </c>
-      <c r="AJ8" s="14">
+      <c r="AJ8" s="12">
         <v>5.8282740000000004</v>
       </c>
     </row>
@@ -9070,28 +9134,28 @@
         <f t="shared" si="2"/>
         <v>0.82881365207194757</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC9" s="11">
         <v>0</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AD9" s="11">
         <v>4</v>
       </c>
-      <c r="AE9" s="14">
+      <c r="AE9" s="12">
         <v>792.69470000000001</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AF9" s="12">
         <v>780.82489999999996</v>
       </c>
-      <c r="AG9" s="14">
+      <c r="AG9" s="12">
         <v>1320.1659999999999</v>
       </c>
-      <c r="AH9" s="14">
+      <c r="AH9" s="12">
         <v>6.4332199999999999E-3</v>
       </c>
-      <c r="AI9" s="14">
+      <c r="AI9" s="12">
         <v>64.085359999999994</v>
       </c>
-      <c r="AJ9" s="14">
+      <c r="AJ9" s="12">
         <v>60.218829999999997</v>
       </c>
     </row>
@@ -9132,28 +9196,28 @@
         <f t="shared" si="2"/>
         <v>0.8203294495581297</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AC10" s="11">
         <v>0</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AD10" s="11">
         <v>5</v>
       </c>
-      <c r="AE10" s="14">
+      <c r="AE10" s="12">
         <v>2721.346</v>
       </c>
-      <c r="AF10" s="14">
+      <c r="AF10" s="12">
         <v>727.79679999999996</v>
       </c>
-      <c r="AG10" s="14">
+      <c r="AG10" s="12">
         <v>4229.0510000000004</v>
       </c>
-      <c r="AH10" s="14">
+      <c r="AH10" s="12">
         <v>2.0909489999999999E-2</v>
       </c>
-      <c r="AI10" s="14">
+      <c r="AI10" s="12">
         <v>30.726610000000001</v>
       </c>
-      <c r="AJ10" s="14">
+      <c r="AJ10" s="12">
         <v>95.117649999999998</v>
       </c>
     </row>
@@ -9197,28 +9261,28 @@
         <f t="shared" si="2"/>
         <v>0.82032927003448131</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AC11" s="11">
         <v>0</v>
       </c>
-      <c r="AD11" s="13">
+      <c r="AD11" s="11">
         <v>6</v>
       </c>
-      <c r="AE11" s="14">
+      <c r="AE11" s="12">
         <v>2721.3870000000002</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AF11" s="12">
         <v>727.7704</v>
       </c>
-      <c r="AG11" s="14">
+      <c r="AG11" s="12">
         <v>4229.0780000000004</v>
       </c>
-      <c r="AH11" s="14">
+      <c r="AH11" s="12">
         <v>2.0904369999999999E-2</v>
       </c>
-      <c r="AI11" s="14">
+      <c r="AI11" s="12">
         <v>30.727209999999999</v>
       </c>
-      <c r="AJ11" s="14">
+      <c r="AJ11" s="12">
         <v>95.118539999999996</v>
       </c>
     </row>
@@ -9292,28 +9356,28 @@
         <f t="shared" si="2"/>
         <v>0.82032905986049864</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AC12" s="11">
         <v>0</v>
       </c>
-      <c r="AD12" s="13">
+      <c r="AD12" s="11">
         <v>7</v>
       </c>
-      <c r="AE12" s="14">
+      <c r="AE12" s="12">
         <v>2721.4349999999999</v>
       </c>
-      <c r="AF12" s="14">
+      <c r="AF12" s="12">
         <v>727.79629999999997</v>
       </c>
-      <c r="AG12" s="14">
+      <c r="AG12" s="12">
         <v>4229.0290000000005</v>
       </c>
-      <c r="AH12" s="14">
+      <c r="AH12" s="12">
         <v>2.0904470000000001E-2</v>
       </c>
-      <c r="AI12" s="14">
+      <c r="AI12" s="12">
         <v>30.727609999999999</v>
       </c>
-      <c r="AJ12" s="14">
+      <c r="AJ12" s="12">
         <v>95.120660000000001</v>
       </c>
     </row>
@@ -9389,28 +9453,28 @@
         <f t="shared" si="2"/>
         <v>0.8288136374874755</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AC13" s="11">
         <v>0</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AD13" s="11">
         <v>8</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AE13" s="12">
         <v>792.69799999999998</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AF13" s="12">
         <v>780.79219999999998</v>
       </c>
-      <c r="AG13" s="14">
+      <c r="AG13" s="12">
         <v>1320.153</v>
       </c>
-      <c r="AH13" s="14">
+      <c r="AH13" s="12">
         <v>6.4325759999999997E-3</v>
       </c>
-      <c r="AI13" s="14">
+      <c r="AI13" s="12">
         <v>64.087050000000005</v>
       </c>
-      <c r="AJ13" s="14">
+      <c r="AJ13" s="12">
         <v>60.219909999999999</v>
       </c>
     </row>
@@ -9455,28 +9519,28 @@
         <f t="shared" si="2"/>
         <v>0.82881380852356967</v>
       </c>
-      <c r="AC14" s="13">
+      <c r="AC14" s="11">
         <v>0</v>
       </c>
-      <c r="AD14" s="13">
+      <c r="AD14" s="11">
         <v>9</v>
       </c>
-      <c r="AE14" s="14">
+      <c r="AE14" s="12">
         <v>792.65930000000003</v>
       </c>
-      <c r="AF14" s="14">
+      <c r="AF14" s="12">
         <v>780.76639999999998</v>
       </c>
-      <c r="AG14" s="14">
+      <c r="AG14" s="12">
         <v>1320.1869999999999</v>
       </c>
-      <c r="AH14" s="14">
+      <c r="AH14" s="12">
         <v>6.4327259999999997E-3</v>
       </c>
-      <c r="AI14" s="14">
+      <c r="AI14" s="12">
         <v>64.086579999999998</v>
       </c>
-      <c r="AJ14" s="14">
+      <c r="AJ14" s="12">
         <v>60.219180000000001</v>
       </c>
     </row>
@@ -9517,28 +9581,28 @@
         <f t="shared" si="2"/>
         <v>0.82032918246198272</v>
       </c>
-      <c r="AC15" s="13">
+      <c r="AC15" s="11">
         <v>0</v>
       </c>
-      <c r="AD15" s="13">
+      <c r="AD15" s="11">
         <v>10</v>
       </c>
-      <c r="AE15" s="14">
+      <c r="AE15" s="12">
         <v>2721.4070000000002</v>
       </c>
-      <c r="AF15" s="14">
+      <c r="AF15" s="12">
         <v>727.8211</v>
       </c>
-      <c r="AG15" s="14">
+      <c r="AG15" s="12">
         <v>4229.0140000000001</v>
       </c>
-      <c r="AH15" s="14">
+      <c r="AH15" s="12">
         <v>2.0908960000000001E-2</v>
       </c>
-      <c r="AI15" s="14">
+      <c r="AI15" s="12">
         <v>30.72701</v>
       </c>
-      <c r="AJ15" s="14">
+      <c r="AJ15" s="12">
         <v>95.120009999999994</v>
       </c>
     </row>
@@ -9612,28 +9676,28 @@
         <f t="shared" si="2"/>
         <v>0.80233463171524777</v>
       </c>
-      <c r="AC16" s="13">
+      <c r="AC16" s="11">
         <v>0</v>
       </c>
-      <c r="AD16" s="13">
+      <c r="AD16" s="11">
         <v>11</v>
       </c>
-      <c r="AE16" s="14">
+      <c r="AE16" s="12">
         <v>6872.0730000000003</v>
       </c>
-      <c r="AF16" s="14">
+      <c r="AF16" s="12">
         <v>1028.836</v>
       </c>
-      <c r="AG16" s="14">
+      <c r="AG16" s="12">
         <v>843.62009999999998</v>
       </c>
-      <c r="AH16" s="14">
+      <c r="AH16" s="12">
         <v>5.7542100000000001E-3</v>
       </c>
-      <c r="AI16" s="14">
+      <c r="AI16" s="12">
         <v>211.22550000000001</v>
       </c>
-      <c r="AJ16" s="14">
+      <c r="AJ16" s="12">
         <v>5.8268649999999997</v>
       </c>
     </row>
@@ -9709,28 +9773,28 @@
         <f t="shared" si="2"/>
         <v>0.80233410373983149</v>
       </c>
-      <c r="AC17" s="13">
+      <c r="AC17" s="11">
         <v>0</v>
       </c>
-      <c r="AD17" s="13">
+      <c r="AD17" s="11">
         <v>12</v>
       </c>
-      <c r="AE17" s="14">
+      <c r="AE17" s="12">
         <v>6872.1959999999999</v>
       </c>
-      <c r="AF17" s="14">
+      <c r="AF17" s="12">
         <v>1028.846</v>
       </c>
-      <c r="AG17" s="14">
+      <c r="AG17" s="12">
         <v>843.64099999999996</v>
       </c>
-      <c r="AH17" s="14">
+      <c r="AH17" s="12">
         <v>5.7485100000000001E-3</v>
       </c>
-      <c r="AI17" s="14">
+      <c r="AI17" s="12">
         <v>211.22749999999999</v>
       </c>
-      <c r="AJ17" s="14">
+      <c r="AJ17" s="12">
         <v>5.8286559999999996</v>
       </c>
     </row>
@@ -9749,10 +9813,10 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="9"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
@@ -10062,10 +10126,10 @@
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="13"/>
     </row>
     <row r="37" spans="16:23" x14ac:dyDescent="0.25">
       <c r="P37" t="s">
@@ -10447,10 +10511,10 @@
       <c r="W50" s="4"/>
     </row>
     <row r="52" spans="16:29" x14ac:dyDescent="0.25">
-      <c r="Q52" s="9" t="s">
+      <c r="Q52" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="9"/>
+      <c r="R52" s="13"/>
     </row>
     <row r="53" spans="16:29" x14ac:dyDescent="0.25">
       <c r="P53" t="s">
@@ -11083,55 +11147,55 @@
     <mergeCell ref="Q36:R36"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M13">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:M14">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11143,39 +11207,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E1D526-36BE-496F-BEF2-8ECDAC7E47B0}">
   <dimension ref="A1:AT70"/>
   <sheetViews>
-    <sheetView topLeftCell="M30" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" topLeftCell="X45" workbookViewId="0">
+      <selection activeCell="AB54" sqref="AB54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
@@ -11183,16 +11247,16 @@
       <c r="AA1" s="7"/>
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
       <c r="AL1" s="7"/>
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
@@ -11205,27 +11269,27 @@
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
@@ -11233,14 +11297,14 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
       <c r="AL2" s="7"/>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
@@ -11318,10 +11382,10 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="13"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -11533,28 +11597,28 @@
       </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="11">
+      <c r="AC6" s="9">
         <v>0</v>
       </c>
-      <c r="AD6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="12">
+      <c r="AD6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="10">
         <v>125.31829999999999</v>
       </c>
-      <c r="AF6" s="12">
+      <c r="AF6" s="10">
         <v>226.49719999999999</v>
       </c>
-      <c r="AG6" s="12">
+      <c r="AG6" s="10">
         <v>226.46420000000001</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AH6" s="10">
         <v>1.875613E-7</v>
       </c>
-      <c r="AI6" s="12">
+      <c r="AI6" s="10">
         <v>34.742280000000001</v>
       </c>
-      <c r="AJ6" s="12">
+      <c r="AJ6" s="10">
         <v>34.742179999999998</v>
       </c>
       <c r="AK6" s="7"/>
@@ -11622,28 +11686,28 @@
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
-      <c r="AC7" s="11">
+      <c r="AC7" s="9">
         <v>0</v>
       </c>
-      <c r="AD7" s="11">
+      <c r="AD7" s="9">
         <v>2</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AE7" s="10">
         <v>2850.2809999999999</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AF7" s="10">
         <v>39.198300000000003</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AG7" s="10">
         <v>665.21929999999998</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AH7" s="10">
         <v>7.7746019999999996E-4</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AI7" s="10">
         <v>95.404669999999996</v>
       </c>
-      <c r="AJ7" s="12">
+      <c r="AJ7" s="10">
         <v>2.117445</v>
       </c>
       <c r="AK7" s="7"/>
@@ -11711,28 +11775,28 @@
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
-      <c r="AC8" s="11">
+      <c r="AC8" s="9">
         <v>0</v>
       </c>
-      <c r="AD8" s="11">
+      <c r="AD8" s="9">
         <v>3</v>
       </c>
-      <c r="AE8" s="12">
+      <c r="AE8" s="10">
         <v>2850.0279999999998</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AF8" s="10">
         <v>38.9041</v>
       </c>
-      <c r="AG8" s="12">
+      <c r="AG8" s="10">
         <v>665.14639999999997</v>
       </c>
-      <c r="AH8" s="12">
+      <c r="AH8" s="10">
         <v>7.6891039999999996E-4</v>
       </c>
-      <c r="AI8" s="12">
+      <c r="AI8" s="10">
         <v>95.396839999999997</v>
       </c>
-      <c r="AJ8" s="12">
+      <c r="AJ8" s="10">
         <v>2.114096</v>
       </c>
       <c r="AK8" s="7"/>
@@ -11800,28 +11864,28 @@
       </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
-      <c r="AC9" s="11">
+      <c r="AC9" s="9">
         <v>0</v>
       </c>
-      <c r="AD9" s="11">
+      <c r="AD9" s="9">
         <v>4</v>
       </c>
-      <c r="AE9" s="12">
+      <c r="AE9" s="10">
         <v>125.2933</v>
       </c>
-      <c r="AF9" s="12">
+      <c r="AF9" s="10">
         <v>226.58330000000001</v>
       </c>
-      <c r="AG9" s="12">
+      <c r="AG9" s="10">
         <v>226.40430000000001</v>
       </c>
-      <c r="AH9" s="12">
+      <c r="AH9" s="10">
         <v>7.269829E-7</v>
       </c>
-      <c r="AI9" s="12">
+      <c r="AI9" s="10">
         <v>34.737789999999997</v>
       </c>
-      <c r="AJ9" s="12">
+      <c r="AJ9" s="10">
         <v>34.737699999999997</v>
       </c>
       <c r="AK9" s="7"/>
@@ -11889,28 +11953,28 @@
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
-      <c r="AC10" s="11">
+      <c r="AC10" s="9">
         <v>0</v>
       </c>
-      <c r="AD10" s="11">
+      <c r="AD10" s="9">
         <v>5</v>
       </c>
-      <c r="AE10" s="12">
+      <c r="AE10" s="10">
         <v>2850.1770000000001</v>
       </c>
-      <c r="AF10" s="12">
+      <c r="AF10" s="10">
         <v>665.19759999999997</v>
       </c>
-      <c r="AG10" s="12">
+      <c r="AG10" s="10">
         <v>39.279760000000003</v>
       </c>
-      <c r="AH10" s="12">
+      <c r="AH10" s="10">
         <v>7.70808E-4</v>
       </c>
-      <c r="AI10" s="12">
+      <c r="AI10" s="10">
         <v>2.116959</v>
       </c>
-      <c r="AJ10" s="12">
+      <c r="AJ10" s="10">
         <v>95.4024</v>
       </c>
       <c r="AK10" s="7"/>
@@ -11980,28 +12044,28 @@
       </c>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
-      <c r="AC11" s="11">
+      <c r="AC11" s="9">
         <v>0</v>
       </c>
-      <c r="AD11" s="11">
+      <c r="AD11" s="9">
         <v>6</v>
       </c>
-      <c r="AE11" s="12">
+      <c r="AE11" s="10">
         <v>2849.8009999999999</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AF11" s="10">
         <v>665.16020000000003</v>
       </c>
-      <c r="AG11" s="12">
+      <c r="AG11" s="10">
         <v>39.376100000000001</v>
       </c>
-      <c r="AH11" s="12">
+      <c r="AH11" s="10">
         <v>7.7759050000000005E-4</v>
       </c>
-      <c r="AI11" s="12">
+      <c r="AI11" s="10">
         <v>2.1167739999999999</v>
       </c>
-      <c r="AJ11" s="12">
+      <c r="AJ11" s="10">
         <v>95.389359999999996</v>
       </c>
       <c r="AK11" s="7"/>
@@ -12091,28 +12155,28 @@
       </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="11">
+      <c r="AC12" s="9">
         <v>0</v>
       </c>
-      <c r="AD12" s="11">
+      <c r="AD12" s="9">
         <v>7</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AE12" s="10">
         <v>2849.9679999999998</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AF12" s="10">
         <v>665.14710000000002</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AG12" s="10">
         <v>38.850619999999999</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AH12" s="10">
         <v>7.7573249999999996E-4</v>
       </c>
-      <c r="AI12" s="12">
+      <c r="AI12" s="10">
         <v>2.114401</v>
       </c>
-      <c r="AJ12" s="12">
+      <c r="AJ12" s="10">
         <v>95.393969999999996</v>
       </c>
       <c r="AK12" s="7"/>
@@ -12204,28 +12268,28 @@
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="11">
+      <c r="AC13" s="9">
         <v>0</v>
       </c>
-      <c r="AD13" s="11">
+      <c r="AD13" s="9">
         <v>8</v>
       </c>
-      <c r="AE13" s="12">
+      <c r="AE13" s="10">
         <v>125.28489999999999</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AF13" s="10">
         <v>226.4042</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AG13" s="10">
         <v>226.59700000000001</v>
       </c>
-      <c r="AH13" s="12">
+      <c r="AH13" s="10">
         <v>7.1923039999999998E-7</v>
       </c>
-      <c r="AI13" s="12">
+      <c r="AI13" s="10">
         <v>34.736080000000001</v>
       </c>
-      <c r="AJ13" s="12">
+      <c r="AJ13" s="10">
         <v>34.7363</v>
       </c>
       <c r="AK13" s="7"/>
@@ -12293,28 +12357,28 @@
       </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
-      <c r="AC14" s="11">
+      <c r="AC14" s="9">
         <v>0</v>
       </c>
-      <c r="AD14" s="11">
+      <c r="AD14" s="9">
         <v>9</v>
       </c>
-      <c r="AE14" s="12">
+      <c r="AE14" s="10">
         <v>125.26</v>
       </c>
-      <c r="AF14" s="12">
+      <c r="AF14" s="10">
         <v>226.5043</v>
       </c>
-      <c r="AG14" s="12">
+      <c r="AG14" s="10">
         <v>226.52269999999999</v>
       </c>
-      <c r="AH14" s="12">
+      <c r="AH14" s="10">
         <v>4.2243999999999998E-8</v>
       </c>
-      <c r="AI14" s="12">
+      <c r="AI14" s="10">
         <v>34.731720000000003</v>
       </c>
-      <c r="AJ14" s="12">
+      <c r="AJ14" s="10">
         <v>34.73171</v>
       </c>
       <c r="AK14" s="7"/>
@@ -12382,28 +12446,28 @@
       </c>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
-      <c r="AC15" s="11">
+      <c r="AC15" s="9">
         <v>0</v>
       </c>
-      <c r="AD15" s="11">
+      <c r="AD15" s="9">
         <v>10</v>
       </c>
-      <c r="AE15" s="12">
+      <c r="AE15" s="10">
         <v>2849.4830000000002</v>
       </c>
-      <c r="AF15" s="12">
+      <c r="AF15" s="10">
         <v>665.06979999999999</v>
       </c>
-      <c r="AG15" s="12">
+      <c r="AG15" s="10">
         <v>38.97833</v>
       </c>
-      <c r="AH15" s="12">
+      <c r="AH15" s="10">
         <v>7.6920220000000004E-4</v>
       </c>
-      <c r="AI15" s="12">
+      <c r="AI15" s="10">
         <v>2.1125579999999999</v>
       </c>
-      <c r="AJ15" s="12">
+      <c r="AJ15" s="10">
         <v>95.379199999999997</v>
       </c>
       <c r="AK15" s="7"/>
@@ -12493,28 +12557,28 @@
       </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="11">
+      <c r="AC16" s="9">
         <v>0</v>
       </c>
-      <c r="AD16" s="11">
+      <c r="AD16" s="9">
         <v>11</v>
       </c>
-      <c r="AE16" s="12">
+      <c r="AE16" s="10">
         <v>2849.6289999999999</v>
       </c>
-      <c r="AF16" s="12">
+      <c r="AF16" s="10">
         <v>39.350720000000003</v>
       </c>
-      <c r="AG16" s="12">
+      <c r="AG16" s="10">
         <v>665.12139999999999</v>
       </c>
-      <c r="AH16" s="12">
+      <c r="AH16" s="10">
         <v>7.7105459999999995E-4</v>
       </c>
-      <c r="AI16" s="12">
+      <c r="AI16" s="10">
         <v>95.384709999999998</v>
       </c>
-      <c r="AJ16" s="12">
+      <c r="AJ16" s="10">
         <v>2.115437</v>
       </c>
       <c r="AK16" s="7"/>
@@ -12606,28 +12670,28 @@
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="11">
+      <c r="AC17" s="9">
         <v>0</v>
       </c>
-      <c r="AD17" s="11">
+      <c r="AD17" s="9">
         <v>12</v>
       </c>
-      <c r="AE17" s="12">
+      <c r="AE17" s="10">
         <v>2849.4870000000001</v>
       </c>
-      <c r="AF17" s="12">
+      <c r="AF17" s="10">
         <v>39.026029999999999</v>
       </c>
-      <c r="AG17" s="12">
+      <c r="AG17" s="10">
         <v>665.08860000000004</v>
       </c>
-      <c r="AH17" s="12">
+      <c r="AH17" s="10">
         <v>7.7649100000000003E-4</v>
       </c>
-      <c r="AI17" s="12">
+      <c r="AI17" s="10">
         <v>95.378619999999998</v>
       </c>
-      <c r="AJ17" s="12">
+      <c r="AJ17" s="10">
         <v>2.113747</v>
       </c>
       <c r="AK17" s="7"/>
@@ -12754,10 +12818,10 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="9"/>
+      <c r="R20" s="13"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
@@ -12879,7 +12943,7 @@
         <f>ABS(AE6)</f>
         <v>125.31829999999999</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="12">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
         <v>108.83590636362818</v>
       </c>
@@ -13704,10 +13768,10 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="13"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -13840,7 +13904,7 @@
         <f>SQRT(AF6^2 + AG6^2)</f>
         <v>320.29207840575765</v>
       </c>
-      <c r="W38" s="4">
+      <c r="W38" s="12">
         <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
         <v>4.8521780051992067</v>
       </c>
@@ -14718,10 +14782,10 @@
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
-      <c r="Q52" s="9" t="s">
+      <c r="Q52" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="9"/>
+      <c r="R52" s="13"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
@@ -16038,43 +16102,349 @@
     <mergeCell ref="Q36:R36"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M13">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:M14">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F77AD89-1F2F-444D-8C1E-96F43F91E42D}">
+  <dimension ref="C7:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="12">
+        <v>144000000</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="K15" s="12">
+        <v>434000000</v>
+      </c>
+      <c r="L15" s="12">
+        <v>510000000</v>
+      </c>
+      <c r="M15" s="3">
+        <f>(K15/PRODUCT(E15:I15))-1</f>
+        <v>0.88698277541252701</v>
+      </c>
+      <c r="N15" s="3">
+        <f>(L15/(F15*G15*H15*J15*E15))-1</f>
+        <v>0.95133149678604201</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="12">
+        <v>269000000</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="K16" s="12">
+        <v>434000000</v>
+      </c>
+      <c r="L16" s="12">
+        <v>510000000</v>
+      </c>
+      <c r="M16" s="3">
+        <f>(K16/PRODUCT(E16:I16))-1</f>
+        <v>1.0132043343508812E-2</v>
+      </c>
+      <c r="N16" s="3">
+        <f>(L16/(E16*F16*G16*H16*J16))-1</f>
+        <v>4.4578942517435216E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="12">
+        <v>12800000</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="K17" s="12">
+        <v>434000000</v>
+      </c>
+      <c r="L17" s="12">
+        <v>510000000</v>
+      </c>
+      <c r="M17" s="3">
+        <f>(K17/PRODUCT(E17:I17))-1</f>
+        <v>20.228556223390935</v>
+      </c>
+      <c r="N17" s="3">
+        <f>(L17/(PRODUCT(E17:H17)*J17))-1</f>
+        <v>20.952479338842974</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M10:N10 M15:N16">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17:N17">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -16082,14 +16452,6 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:M14">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Calculos/MoS_Seno final.xlsx
+++ b/Calculos/MoS_Seno final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD303953-5F46-45B1-B23F-5B5E4B5465D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0C6BE6-00C4-4DC2-AEFC-8A2FEF95338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoS Estatico X" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="56">
   <si>
     <t>Shell 2D Elements</t>
   </si>
@@ -198,6 +198,15 @@
   <si>
     <t>ANALISIS SENO Z</t>
   </si>
+  <si>
+    <t xml:space="preserve">Beam </t>
+  </si>
+  <si>
+    <t>El bueno --&gt;</t>
+  </si>
+  <si>
+    <t>beam</t>
+  </si>
 </sst>
 </file>
 
@@ -270,16 +279,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1165,73 +1174,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="Q1" s="9" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="Q1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="AD1" s="9" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="AD1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -2265,10 +2274,10 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="9"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P21" t="s">
@@ -2577,10 +2586,10 @@
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="13"/>
     </row>
     <row r="37" spans="16:23" x14ac:dyDescent="0.25">
       <c r="P37" t="s">
@@ -2962,10 +2971,10 @@
       <c r="W50" s="4"/>
     </row>
     <row r="52" spans="16:29" x14ac:dyDescent="0.25">
-      <c r="Q52" s="9" t="s">
+      <c r="Q52" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="9"/>
+      <c r="R52" s="13"/>
     </row>
     <row r="53" spans="16:29" x14ac:dyDescent="0.25">
       <c r="P53" t="s">
@@ -3663,73 +3672,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="Q1" s="9" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="Q1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="AD1" s="9" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="AD1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -4763,10 +4772,10 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="9"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P21" t="s">
@@ -5075,10 +5084,10 @@
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="13"/>
     </row>
     <row r="37" spans="16:23" x14ac:dyDescent="0.25">
       <c r="P37" t="s">
@@ -5460,10 +5469,10 @@
       <c r="W50" s="4"/>
     </row>
     <row r="52" spans="16:29" x14ac:dyDescent="0.25">
-      <c r="Q52" s="9" t="s">
+      <c r="Q52" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="9"/>
+      <c r="R52" s="13"/>
     </row>
     <row r="53" spans="16:29" x14ac:dyDescent="0.25">
       <c r="P53" t="s">
@@ -6160,73 +6169,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="Q1" s="9" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="Q1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="AD1" s="9" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="AD1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -7260,10 +7269,10 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="9"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
       <c r="P21" t="s">
@@ -7572,10 +7581,10 @@
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="13"/>
     </row>
     <row r="37" spans="16:23" x14ac:dyDescent="0.25">
       <c r="P37" t="s">
@@ -7957,10 +7966,10 @@
       <c r="W50" s="4"/>
     </row>
     <row r="52" spans="16:29" x14ac:dyDescent="0.25">
-      <c r="Q52" s="9" t="s">
+      <c r="Q52" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="9"/>
+      <c r="R52" s="13"/>
     </row>
     <row r="53" spans="16:29" x14ac:dyDescent="0.25">
       <c r="P53" t="s">
@@ -8645,80 +8654,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF71C30C-B3DA-491B-B9AB-D717A9293A94}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="Q1" s="9" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="Q1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="AD1" s="9" t="s">
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="AD1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
     </row>
     <row r="2" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
     </row>
     <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -8878,28 +8887,28 @@
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
         <v>0.82881381957241418</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AC6" s="11">
         <v>0</v>
       </c>
-      <c r="AD6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="14">
+      <c r="AD6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="12">
         <v>792.65679999999998</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AF6" s="12">
         <v>780.7962</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AG6" s="12">
         <v>1320.194</v>
       </c>
-      <c r="AH6" s="14">
+      <c r="AH6" s="12">
         <v>6.4331809999999996E-3</v>
       </c>
-      <c r="AI6" s="14">
+      <c r="AI6" s="12">
         <v>64.084919999999997</v>
       </c>
-      <c r="AJ6" s="14">
+      <c r="AJ6" s="12">
         <v>60.218069999999997</v>
       </c>
     </row>
@@ -8945,28 +8954,28 @@
         <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
         <v>0.80233511247361977</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7" s="11">
         <v>0</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7" s="11">
         <v>2</v>
       </c>
-      <c r="AE7" s="14">
+      <c r="AE7" s="12">
         <v>6871.9610000000002</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AF7" s="12">
         <v>1028.9829999999999</v>
       </c>
-      <c r="AG7" s="14">
+      <c r="AG7" s="12">
         <v>843.62490000000003</v>
       </c>
-      <c r="AH7" s="14">
+      <c r="AH7" s="12">
         <v>5.749115E-3</v>
       </c>
-      <c r="AI7" s="14">
+      <c r="AI7" s="12">
         <v>211.2208</v>
       </c>
-      <c r="AJ7" s="14">
+      <c r="AJ7" s="12">
         <v>5.8300140000000003</v>
       </c>
     </row>
@@ -9007,28 +9016,28 @@
         <f t="shared" si="2"/>
         <v>0.8023356576195837</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC8" s="11">
         <v>0</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AD8" s="11">
         <v>3</v>
       </c>
-      <c r="AE8" s="14">
+      <c r="AE8" s="12">
         <v>6871.8339999999998</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AF8" s="12">
         <v>1028.991</v>
       </c>
-      <c r="AG8" s="14">
+      <c r="AG8" s="12">
         <v>843.60379999999998</v>
       </c>
-      <c r="AH8" s="14">
+      <c r="AH8" s="12">
         <v>5.7551900000000003E-3</v>
       </c>
-      <c r="AI8" s="14">
+      <c r="AI8" s="12">
         <v>211.21870000000001</v>
       </c>
-      <c r="AJ8" s="14">
+      <c r="AJ8" s="12">
         <v>5.8282740000000004</v>
       </c>
     </row>
@@ -9070,28 +9079,28 @@
         <f t="shared" si="2"/>
         <v>0.82881365207194757</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC9" s="11">
         <v>0</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AD9" s="11">
         <v>4</v>
       </c>
-      <c r="AE9" s="14">
+      <c r="AE9" s="12">
         <v>792.69470000000001</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AF9" s="12">
         <v>780.82489999999996</v>
       </c>
-      <c r="AG9" s="14">
+      <c r="AG9" s="12">
         <v>1320.1659999999999</v>
       </c>
-      <c r="AH9" s="14">
+      <c r="AH9" s="12">
         <v>6.4332199999999999E-3</v>
       </c>
-      <c r="AI9" s="14">
+      <c r="AI9" s="12">
         <v>64.085359999999994</v>
       </c>
-      <c r="AJ9" s="14">
+      <c r="AJ9" s="12">
         <v>60.218829999999997</v>
       </c>
     </row>
@@ -9132,28 +9141,28 @@
         <f t="shared" si="2"/>
         <v>0.8203294495581297</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AC10" s="11">
         <v>0</v>
       </c>
-      <c r="AD10" s="13">
+      <c r="AD10" s="11">
         <v>5</v>
       </c>
-      <c r="AE10" s="14">
+      <c r="AE10" s="12">
         <v>2721.346</v>
       </c>
-      <c r="AF10" s="14">
+      <c r="AF10" s="12">
         <v>727.79679999999996</v>
       </c>
-      <c r="AG10" s="14">
+      <c r="AG10" s="12">
         <v>4229.0510000000004</v>
       </c>
-      <c r="AH10" s="14">
+      <c r="AH10" s="12">
         <v>2.0909489999999999E-2</v>
       </c>
-      <c r="AI10" s="14">
+      <c r="AI10" s="12">
         <v>30.726610000000001</v>
       </c>
-      <c r="AJ10" s="14">
+      <c r="AJ10" s="12">
         <v>95.117649999999998</v>
       </c>
     </row>
@@ -9197,28 +9206,28 @@
         <f t="shared" si="2"/>
         <v>0.82032927003448131</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AC11" s="11">
         <v>0</v>
       </c>
-      <c r="AD11" s="13">
+      <c r="AD11" s="11">
         <v>6</v>
       </c>
-      <c r="AE11" s="14">
+      <c r="AE11" s="12">
         <v>2721.3870000000002</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AF11" s="12">
         <v>727.7704</v>
       </c>
-      <c r="AG11" s="14">
+      <c r="AG11" s="12">
         <v>4229.0780000000004</v>
       </c>
-      <c r="AH11" s="14">
+      <c r="AH11" s="12">
         <v>2.0904369999999999E-2</v>
       </c>
-      <c r="AI11" s="14">
+      <c r="AI11" s="12">
         <v>30.727209999999999</v>
       </c>
-      <c r="AJ11" s="14">
+      <c r="AJ11" s="12">
         <v>95.118539999999996</v>
       </c>
     </row>
@@ -9292,28 +9301,28 @@
         <f t="shared" si="2"/>
         <v>0.82032905986049864</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AC12" s="11">
         <v>0</v>
       </c>
-      <c r="AD12" s="13">
+      <c r="AD12" s="11">
         <v>7</v>
       </c>
-      <c r="AE12" s="14">
+      <c r="AE12" s="12">
         <v>2721.4349999999999</v>
       </c>
-      <c r="AF12" s="14">
+      <c r="AF12" s="12">
         <v>727.79629999999997</v>
       </c>
-      <c r="AG12" s="14">
+      <c r="AG12" s="12">
         <v>4229.0290000000005</v>
       </c>
-      <c r="AH12" s="14">
+      <c r="AH12" s="12">
         <v>2.0904470000000001E-2</v>
       </c>
-      <c r="AI12" s="14">
+      <c r="AI12" s="12">
         <v>30.727609999999999</v>
       </c>
-      <c r="AJ12" s="14">
+      <c r="AJ12" s="12">
         <v>95.120660000000001</v>
       </c>
     </row>
@@ -9389,28 +9398,28 @@
         <f t="shared" si="2"/>
         <v>0.8288136374874755</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AC13" s="11">
         <v>0</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AD13" s="11">
         <v>8</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AE13" s="12">
         <v>792.69799999999998</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AF13" s="12">
         <v>780.79219999999998</v>
       </c>
-      <c r="AG13" s="14">
+      <c r="AG13" s="12">
         <v>1320.153</v>
       </c>
-      <c r="AH13" s="14">
+      <c r="AH13" s="12">
         <v>6.4325759999999997E-3</v>
       </c>
-      <c r="AI13" s="14">
+      <c r="AI13" s="12">
         <v>64.087050000000005</v>
       </c>
-      <c r="AJ13" s="14">
+      <c r="AJ13" s="12">
         <v>60.219909999999999</v>
       </c>
     </row>
@@ -9455,32 +9464,35 @@
         <f t="shared" si="2"/>
         <v>0.82881380852356967</v>
       </c>
-      <c r="AC14" s="13">
+      <c r="AC14" s="11">
         <v>0</v>
       </c>
-      <c r="AD14" s="13">
+      <c r="AD14" s="11">
         <v>9</v>
       </c>
-      <c r="AE14" s="14">
+      <c r="AE14" s="12">
         <v>792.65930000000003</v>
       </c>
-      <c r="AF14" s="14">
+      <c r="AF14" s="12">
         <v>780.76639999999998</v>
       </c>
-      <c r="AG14" s="14">
+      <c r="AG14" s="12">
         <v>1320.1869999999999</v>
       </c>
-      <c r="AH14" s="14">
+      <c r="AH14" s="12">
         <v>6.4327259999999997E-3</v>
       </c>
-      <c r="AI14" s="14">
+      <c r="AI14" s="12">
         <v>64.086579999999998</v>
       </c>
-      <c r="AJ14" s="14">
+      <c r="AJ14" s="12">
         <v>60.219180000000001</v>
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
       <c r="P15">
         <v>10</v>
       </c>
@@ -9517,28 +9529,28 @@
         <f t="shared" si="2"/>
         <v>0.82032918246198272</v>
       </c>
-      <c r="AC15" s="13">
+      <c r="AC15" s="11">
         <v>0</v>
       </c>
-      <c r="AD15" s="13">
+      <c r="AD15" s="11">
         <v>10</v>
       </c>
-      <c r="AE15" s="14">
+      <c r="AE15" s="12">
         <v>2721.4070000000002</v>
       </c>
-      <c r="AF15" s="14">
+      <c r="AF15" s="12">
         <v>727.8211</v>
       </c>
-      <c r="AG15" s="14">
+      <c r="AG15" s="12">
         <v>4229.0140000000001</v>
       </c>
-      <c r="AH15" s="14">
+      <c r="AH15" s="12">
         <v>2.0908960000000001E-2</v>
       </c>
-      <c r="AI15" s="14">
+      <c r="AI15" s="12">
         <v>30.72701</v>
       </c>
-      <c r="AJ15" s="14">
+      <c r="AJ15" s="12">
         <v>95.120009999999994</v>
       </c>
     </row>
@@ -9612,28 +9624,28 @@
         <f t="shared" si="2"/>
         <v>0.80233463171524777</v>
       </c>
-      <c r="AC16" s="13">
+      <c r="AC16" s="11">
         <v>0</v>
       </c>
-      <c r="AD16" s="13">
+      <c r="AD16" s="11">
         <v>11</v>
       </c>
-      <c r="AE16" s="14">
+      <c r="AE16" s="12">
         <v>6872.0730000000003</v>
       </c>
-      <c r="AF16" s="14">
+      <c r="AF16" s="12">
         <v>1028.836</v>
       </c>
-      <c r="AG16" s="14">
+      <c r="AG16" s="12">
         <v>843.62009999999998</v>
       </c>
-      <c r="AH16" s="14">
+      <c r="AH16" s="12">
         <v>5.7542100000000001E-3</v>
       </c>
-      <c r="AI16" s="14">
+      <c r="AI16" s="12">
         <v>211.22550000000001</v>
       </c>
-      <c r="AJ16" s="14">
+      <c r="AJ16" s="12">
         <v>5.8268649999999997</v>
       </c>
     </row>
@@ -9709,33 +9721,38 @@
         <f t="shared" si="2"/>
         <v>0.80233410373983149</v>
       </c>
-      <c r="AC17" s="13">
+      <c r="AC17" s="11">
         <v>0</v>
       </c>
-      <c r="AD17" s="13">
+      <c r="AD17" s="11">
         <v>12</v>
       </c>
-      <c r="AE17" s="14">
+      <c r="AE17" s="12">
         <v>6872.1959999999999</v>
       </c>
-      <c r="AF17" s="14">
+      <c r="AF17" s="12">
         <v>1028.846</v>
       </c>
-      <c r="AG17" s="14">
+      <c r="AG17" s="12">
         <v>843.64099999999996</v>
       </c>
-      <c r="AH17" s="14">
+      <c r="AH17" s="12">
         <v>5.7485100000000001E-3</v>
       </c>
-      <c r="AI17" s="14">
+      <c r="AI17" s="12">
         <v>211.22749999999999</v>
       </c>
-      <c r="AJ17" s="14">
+      <c r="AJ17" s="12">
         <v>5.8286559999999996</v>
       </c>
     </row>
     <row r="18" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
+      <c r="C18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="2">
+        <v>12800000</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
@@ -9749,10 +9766,10 @@
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="9"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
@@ -10062,10 +10079,10 @@
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="13"/>
     </row>
     <row r="37" spans="16:23" x14ac:dyDescent="0.25">
       <c r="P37" t="s">
@@ -10447,10 +10464,10 @@
       <c r="W50" s="4"/>
     </row>
     <row r="52" spans="16:29" x14ac:dyDescent="0.25">
-      <c r="Q52" s="9" t="s">
+      <c r="Q52" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="9"/>
+      <c r="R52" s="13"/>
     </row>
     <row r="53" spans="16:29" x14ac:dyDescent="0.25">
       <c r="P53" t="s">
@@ -11143,39 +11160,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E1D526-36BE-496F-BEF2-8ECDAC7E47B0}">
   <dimension ref="A1:AT70"/>
   <sheetViews>
-    <sheetView topLeftCell="M30" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
@@ -11183,16 +11200,16 @@
       <c r="AA1" s="7"/>
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
       <c r="AL1" s="7"/>
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
@@ -11205,27 +11222,27 @@
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
       <c r="W2" s="7"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
@@ -11233,14 +11250,14 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
       <c r="AL2" s="7"/>
       <c r="AM2" s="7"/>
       <c r="AN2" s="7"/>
@@ -11318,10 +11335,10 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="13"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
@@ -11533,28 +11550,28 @@
       </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="11">
+      <c r="AC6" s="9">
         <v>0</v>
       </c>
-      <c r="AD6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="12">
+      <c r="AD6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="10">
         <v>125.31829999999999</v>
       </c>
-      <c r="AF6" s="12">
+      <c r="AF6" s="10">
         <v>226.49719999999999</v>
       </c>
-      <c r="AG6" s="12">
+      <c r="AG6" s="10">
         <v>226.46420000000001</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AH6" s="10">
         <v>1.875613E-7</v>
       </c>
-      <c r="AI6" s="12">
+      <c r="AI6" s="10">
         <v>34.742280000000001</v>
       </c>
-      <c r="AJ6" s="12">
+      <c r="AJ6" s="10">
         <v>34.742179999999998</v>
       </c>
       <c r="AK6" s="7"/>
@@ -11622,28 +11639,28 @@
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
-      <c r="AC7" s="11">
+      <c r="AC7" s="9">
         <v>0</v>
       </c>
-      <c r="AD7" s="11">
+      <c r="AD7" s="9">
         <v>2</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AE7" s="10">
         <v>2850.2809999999999</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AF7" s="10">
         <v>39.198300000000003</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AG7" s="10">
         <v>665.21929999999998</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AH7" s="10">
         <v>7.7746019999999996E-4</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AI7" s="10">
         <v>95.404669999999996</v>
       </c>
-      <c r="AJ7" s="12">
+      <c r="AJ7" s="10">
         <v>2.117445</v>
       </c>
       <c r="AK7" s="7"/>
@@ -11711,28 +11728,28 @@
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
-      <c r="AC8" s="11">
+      <c r="AC8" s="9">
         <v>0</v>
       </c>
-      <c r="AD8" s="11">
+      <c r="AD8" s="9">
         <v>3</v>
       </c>
-      <c r="AE8" s="12">
+      <c r="AE8" s="10">
         <v>2850.0279999999998</v>
       </c>
-      <c r="AF8" s="12">
+      <c r="AF8" s="10">
         <v>38.9041</v>
       </c>
-      <c r="AG8" s="12">
+      <c r="AG8" s="10">
         <v>665.14639999999997</v>
       </c>
-      <c r="AH8" s="12">
+      <c r="AH8" s="10">
         <v>7.6891039999999996E-4</v>
       </c>
-      <c r="AI8" s="12">
+      <c r="AI8" s="10">
         <v>95.396839999999997</v>
       </c>
-      <c r="AJ8" s="12">
+      <c r="AJ8" s="10">
         <v>2.114096</v>
       </c>
       <c r="AK8" s="7"/>
@@ -11800,28 +11817,28 @@
       </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
-      <c r="AC9" s="11">
+      <c r="AC9" s="9">
         <v>0</v>
       </c>
-      <c r="AD9" s="11">
+      <c r="AD9" s="9">
         <v>4</v>
       </c>
-      <c r="AE9" s="12">
+      <c r="AE9" s="10">
         <v>125.2933</v>
       </c>
-      <c r="AF9" s="12">
+      <c r="AF9" s="10">
         <v>226.58330000000001</v>
       </c>
-      <c r="AG9" s="12">
+      <c r="AG9" s="10">
         <v>226.40430000000001</v>
       </c>
-      <c r="AH9" s="12">
+      <c r="AH9" s="10">
         <v>7.269829E-7</v>
       </c>
-      <c r="AI9" s="12">
+      <c r="AI9" s="10">
         <v>34.737789999999997</v>
       </c>
-      <c r="AJ9" s="12">
+      <c r="AJ9" s="10">
         <v>34.737699999999997</v>
       </c>
       <c r="AK9" s="7"/>
@@ -11889,28 +11906,28 @@
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
-      <c r="AC10" s="11">
+      <c r="AC10" s="9">
         <v>0</v>
       </c>
-      <c r="AD10" s="11">
+      <c r="AD10" s="9">
         <v>5</v>
       </c>
-      <c r="AE10" s="12">
+      <c r="AE10" s="10">
         <v>2850.1770000000001</v>
       </c>
-      <c r="AF10" s="12">
+      <c r="AF10" s="10">
         <v>665.19759999999997</v>
       </c>
-      <c r="AG10" s="12">
+      <c r="AG10" s="10">
         <v>39.279760000000003</v>
       </c>
-      <c r="AH10" s="12">
+      <c r="AH10" s="10">
         <v>7.70808E-4</v>
       </c>
-      <c r="AI10" s="12">
+      <c r="AI10" s="10">
         <v>2.116959</v>
       </c>
-      <c r="AJ10" s="12">
+      <c r="AJ10" s="10">
         <v>95.4024</v>
       </c>
       <c r="AK10" s="7"/>
@@ -11980,28 +11997,28 @@
       </c>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
-      <c r="AC11" s="11">
+      <c r="AC11" s="9">
         <v>0</v>
       </c>
-      <c r="AD11" s="11">
+      <c r="AD11" s="9">
         <v>6</v>
       </c>
-      <c r="AE11" s="12">
+      <c r="AE11" s="10">
         <v>2849.8009999999999</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AF11" s="10">
         <v>665.16020000000003</v>
       </c>
-      <c r="AG11" s="12">
+      <c r="AG11" s="10">
         <v>39.376100000000001</v>
       </c>
-      <c r="AH11" s="12">
+      <c r="AH11" s="10">
         <v>7.7759050000000005E-4</v>
       </c>
-      <c r="AI11" s="12">
+      <c r="AI11" s="10">
         <v>2.1167739999999999</v>
       </c>
-      <c r="AJ11" s="12">
+      <c r="AJ11" s="10">
         <v>95.389359999999996</v>
       </c>
       <c r="AK11" s="7"/>
@@ -12091,28 +12108,28 @@
       </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="11">
+      <c r="AC12" s="9">
         <v>0</v>
       </c>
-      <c r="AD12" s="11">
+      <c r="AD12" s="9">
         <v>7</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AE12" s="10">
         <v>2849.9679999999998</v>
       </c>
-      <c r="AF12" s="12">
+      <c r="AF12" s="10">
         <v>665.14710000000002</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AG12" s="10">
         <v>38.850619999999999</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AH12" s="10">
         <v>7.7573249999999996E-4</v>
       </c>
-      <c r="AI12" s="12">
+      <c r="AI12" s="10">
         <v>2.114401</v>
       </c>
-      <c r="AJ12" s="12">
+      <c r="AJ12" s="10">
         <v>95.393969999999996</v>
       </c>
       <c r="AK12" s="7"/>
@@ -12204,28 +12221,28 @@
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="11">
+      <c r="AC13" s="9">
         <v>0</v>
       </c>
-      <c r="AD13" s="11">
+      <c r="AD13" s="9">
         <v>8</v>
       </c>
-      <c r="AE13" s="12">
+      <c r="AE13" s="10">
         <v>125.28489999999999</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AF13" s="10">
         <v>226.4042</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AG13" s="10">
         <v>226.59700000000001</v>
       </c>
-      <c r="AH13" s="12">
+      <c r="AH13" s="10">
         <v>7.1923039999999998E-7</v>
       </c>
-      <c r="AI13" s="12">
+      <c r="AI13" s="10">
         <v>34.736080000000001</v>
       </c>
-      <c r="AJ13" s="12">
+      <c r="AJ13" s="10">
         <v>34.7363</v>
       </c>
       <c r="AK13" s="7"/>
@@ -12293,28 +12310,28 @@
       </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
-      <c r="AC14" s="11">
+      <c r="AC14" s="9">
         <v>0</v>
       </c>
-      <c r="AD14" s="11">
+      <c r="AD14" s="9">
         <v>9</v>
       </c>
-      <c r="AE14" s="12">
+      <c r="AE14" s="10">
         <v>125.26</v>
       </c>
-      <c r="AF14" s="12">
+      <c r="AF14" s="10">
         <v>226.5043</v>
       </c>
-      <c r="AG14" s="12">
+      <c r="AG14" s="10">
         <v>226.52269999999999</v>
       </c>
-      <c r="AH14" s="12">
+      <c r="AH14" s="10">
         <v>4.2243999999999998E-8</v>
       </c>
-      <c r="AI14" s="12">
+      <c r="AI14" s="10">
         <v>34.731720000000003</v>
       </c>
-      <c r="AJ14" s="12">
+      <c r="AJ14" s="10">
         <v>34.73171</v>
       </c>
       <c r="AK14" s="7"/>
@@ -12332,7 +12349,9 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -12382,28 +12401,28 @@
       </c>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
-      <c r="AC15" s="11">
+      <c r="AC15" s="9">
         <v>0</v>
       </c>
-      <c r="AD15" s="11">
+      <c r="AD15" s="9">
         <v>10</v>
       </c>
-      <c r="AE15" s="12">
+      <c r="AE15" s="10">
         <v>2849.4830000000002</v>
       </c>
-      <c r="AF15" s="12">
+      <c r="AF15" s="10">
         <v>665.06979999999999</v>
       </c>
-      <c r="AG15" s="12">
+      <c r="AG15" s="10">
         <v>38.97833</v>
       </c>
-      <c r="AH15" s="12">
+      <c r="AH15" s="10">
         <v>7.6920220000000004E-4</v>
       </c>
-      <c r="AI15" s="12">
+      <c r="AI15" s="10">
         <v>2.1125579999999999</v>
       </c>
-      <c r="AJ15" s="12">
+      <c r="AJ15" s="10">
         <v>95.379199999999997</v>
       </c>
       <c r="AK15" s="7"/>
@@ -12493,28 +12512,28 @@
       </c>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="11">
+      <c r="AC16" s="9">
         <v>0</v>
       </c>
-      <c r="AD16" s="11">
+      <c r="AD16" s="9">
         <v>11</v>
       </c>
-      <c r="AE16" s="12">
+      <c r="AE16" s="10">
         <v>2849.6289999999999</v>
       </c>
-      <c r="AF16" s="12">
+      <c r="AF16" s="10">
         <v>39.350720000000003</v>
       </c>
-      <c r="AG16" s="12">
+      <c r="AG16" s="10">
         <v>665.12139999999999</v>
       </c>
-      <c r="AH16" s="12">
+      <c r="AH16" s="10">
         <v>7.7105459999999995E-4</v>
       </c>
-      <c r="AI16" s="12">
+      <c r="AI16" s="10">
         <v>95.384709999999998</v>
       </c>
-      <c r="AJ16" s="12">
+      <c r="AJ16" s="10">
         <v>2.115437</v>
       </c>
       <c r="AK16" s="7"/>
@@ -12606,28 +12625,28 @@
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="11">
+      <c r="AC17" s="9">
         <v>0</v>
       </c>
-      <c r="AD17" s="11">
+      <c r="AD17" s="9">
         <v>12</v>
       </c>
-      <c r="AE17" s="12">
+      <c r="AE17" s="10">
         <v>2849.4870000000001</v>
       </c>
-      <c r="AF17" s="12">
+      <c r="AF17" s="10">
         <v>39.026029999999999</v>
       </c>
-      <c r="AG17" s="12">
+      <c r="AG17" s="10">
         <v>665.08860000000004</v>
       </c>
-      <c r="AH17" s="12">
+      <c r="AH17" s="10">
         <v>7.7649100000000003E-4</v>
       </c>
-      <c r="AI17" s="12">
+      <c r="AI17" s="10">
         <v>95.378619999999998</v>
       </c>
-      <c r="AJ17" s="12">
+      <c r="AJ17" s="10">
         <v>2.113747</v>
       </c>
       <c r="AK17" s="7"/>
@@ -12644,8 +12663,12 @@
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="5">
+        <v>13900000</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -12754,10 +12777,10 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="9"/>
+      <c r="R20" s="13"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
@@ -13704,10 +13727,10 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="13"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
@@ -14718,10 +14741,10 @@
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
-      <c r="Q52" s="9" t="s">
+      <c r="Q52" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="9"/>
+      <c r="R52" s="13"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
